--- a/TestData/Book1.xlsx
+++ b/TestData/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="15360" windowHeight="5988"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="19044" windowHeight="4956"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>https://www.saucedemo.com/inventory.html</t>
   </si>
@@ -26,13 +26,22 @@
   </si>
   <si>
     <t>Swag Labs</t>
+  </si>
+  <si>
+    <t>https://www.saucedemo.com/cart.html</t>
+  </si>
+  <si>
+    <t>Checkout: Your Information</t>
+  </si>
+  <si>
+    <t>https://www.saucedemo.com/checkout-step-one.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +56,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF221A15"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,9 +85,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -375,9 +391,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -396,11 +414,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
